--- a/data/trans_orig/P14C17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E992487-3298-4148-A350-24DDADF23221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829445CA-851B-4390-9567-EBD895071572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7ABDC274-C8D1-4239-A11B-4E0EC2AFFCE2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69E45F92-2D37-49A5-A611-03F21FFD405C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>54,12%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>72,8%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>27,43%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>47,74%</t>
+    <t>55,1%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>16,84%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,7 +164,7 @@
     <t>72,65%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>28,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -173,43 +173,43 @@
     <t>62,22%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>64,0%</t>
   </si>
   <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>60,24%</t>
+    <t>72,0%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>0%</t>
@@ -221,19 +221,19 @@
     <t>18,01%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -296,79 +296,79 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>30,86%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF03178-EA3C-4418-955A-504B098AC6DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B5A1C9-4314-4B2B-A8FF-F3E65F061A49}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829445CA-851B-4390-9567-EBD895071572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F13986-A9AC-4E23-B9D3-003529E549B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69E45F92-2D37-49A5-A611-03F21FFD405C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5A70E80-E511-4727-BA06-368691BD2A7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
-    <t>Población según el tiempo de diagnóstico del anemia en 2015 (Tasa respuesta: 1,45%)</t>
+    <t>Población según el tiempo de diagnóstico del anemia en 2016 (Tasa respuesta: 1,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>54,12%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>72,8%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>27,43%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,1%</t>
+    <t>47,82%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>17,5%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,7 +164,7 @@
     <t>72,65%</t>
   </si>
   <si>
-    <t>28,0%</t>
+    <t>28,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -173,43 +173,43 @@
     <t>62,22%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>64,0%</t>
   </si>
   <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>72,0%</t>
+    <t>71,74%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>0%</t>
@@ -221,19 +221,19 @@
     <t>18,01%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -245,19 +245,19 @@
     <t>45,59%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>51,18%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -266,109 +266,109 @@
     <t>22,25%</t>
   </si>
   <si>
-    <t>63,72%</t>
+    <t>56,34%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>50,97%</t>
+    <t>59,55%</t>
   </si>
   <si>
     <t>32,16%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>30,27%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B5A1C9-4314-4B2B-A8FF-F3E65F061A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5E763C-51DA-4E18-8152-A940834ED5F8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
